--- a/scraping_club.xlsx
+++ b/scraping_club.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Parsing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E53D314-E1AE-4720-B673-844C5DAEFCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Товари" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -523,8 +517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,26 +563,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,7 +612,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -660,7 +646,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -695,10 +680,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,20 +855,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -912,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -926,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -940,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -954,7 +936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -968,7 +950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -982,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -996,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1010,7 +992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1038,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1052,7 +1034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1080,7 +1062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1108,7 +1090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1136,7 +1118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1150,7 +1132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1164,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1178,7 +1160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1192,7 +1174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1206,7 +1188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1220,7 +1202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1234,7 +1216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1248,7 +1230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1262,7 +1244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1276,7 +1258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1290,7 +1272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1304,7 +1286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -1318,7 +1300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -1332,7 +1314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1346,7 +1328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1360,7 +1342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1402,7 +1384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1416,7 +1398,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1430,7 +1412,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -1444,7 +1426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -1458,7 +1440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1472,7 +1454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -1486,7 +1468,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -1500,7 +1482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -1514,7 +1496,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -1528,7 +1510,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -1542,7 +1524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -1556,7 +1538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -1570,7 +1552,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -1584,7 +1566,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>139</v>
       </c>
@@ -1598,7 +1580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -1612,7 +1594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -1626,7 +1608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -1640,7 +1622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -1654,7 +1636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -1668,7 +1650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1682,7 +1664,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -1696,7 +1678,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -1710,7 +1692,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -1726,66 +1708,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D14" r:id="rId14"/>
+    <hyperlink ref="D15" r:id="rId15"/>
+    <hyperlink ref="D16" r:id="rId16"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D19" r:id="rId19"/>
+    <hyperlink ref="D20" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D24" r:id="rId24"/>
+    <hyperlink ref="D25" r:id="rId25"/>
+    <hyperlink ref="D26" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D30" r:id="rId30"/>
+    <hyperlink ref="D31" r:id="rId31"/>
+    <hyperlink ref="D32" r:id="rId32"/>
+    <hyperlink ref="D33" r:id="rId33"/>
+    <hyperlink ref="D34" r:id="rId34"/>
+    <hyperlink ref="D35" r:id="rId35"/>
+    <hyperlink ref="D36" r:id="rId36"/>
+    <hyperlink ref="D37" r:id="rId37"/>
+    <hyperlink ref="D38" r:id="rId38"/>
+    <hyperlink ref="D39" r:id="rId39"/>
+    <hyperlink ref="D40" r:id="rId40"/>
+    <hyperlink ref="D41" r:id="rId41"/>
+    <hyperlink ref="D42" r:id="rId42"/>
+    <hyperlink ref="D43" r:id="rId43"/>
+    <hyperlink ref="D44" r:id="rId44"/>
+    <hyperlink ref="D45" r:id="rId45"/>
+    <hyperlink ref="D46" r:id="rId46"/>
+    <hyperlink ref="D47" r:id="rId47"/>
+    <hyperlink ref="D48" r:id="rId48"/>
+    <hyperlink ref="D49" r:id="rId49"/>
+    <hyperlink ref="D50" r:id="rId50"/>
+    <hyperlink ref="D51" r:id="rId51"/>
+    <hyperlink ref="D52" r:id="rId52"/>
+    <hyperlink ref="D53" r:id="rId53"/>
+    <hyperlink ref="D54" r:id="rId54"/>
+    <hyperlink ref="D55" r:id="rId55"/>
+    <hyperlink ref="D56" r:id="rId56"/>
+    <hyperlink ref="D57" r:id="rId57"/>
+    <hyperlink ref="D58" r:id="rId58"/>
+    <hyperlink ref="D59" r:id="rId59"/>
+    <hyperlink ref="D60" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
